--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
   <si>
     <t>Profile</t>
   </si>
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>LOINC#39156-5</t>
+    <t>LOINC#39156-5, LOINC#39156-5</t>
   </si>
   <si>
     <t>dateTimeĵ, Periodĵ</t>
@@ -77,85 +77,100 @@
     <t>Observation Depression - AdultCheck</t>
   </si>
   <si>
+    <t>Observation Category Codes#exam</t>
+  </si>
+  <si>
+    <t>LOINC#89210-9</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>SNOMED CT#66446005</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>SNOMED CT#713566001</t>
+  </si>
+  <si>
+    <t>ObservationHeight-adultcheck</t>
+  </si>
+  <si>
+    <t>Observation Height - AdultCheck</t>
+  </si>
+  <si>
+    <t>null#8302-2</t>
+  </si>
+  <si>
+    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/vital-signs-tw (required)</t>
+  </si>
+  <si>
+    <t>ObservationLab-adultcheck</t>
+  </si>
+  <si>
+    <t>Observation Lab - AdultCheck</t>
+  </si>
+  <si>
     <t>Observation Category Codes#laboratory</t>
   </si>
   <si>
-    <t>null#89210-9</t>
-  </si>
-  <si>
     <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/laboratory-category-tw (required)</t>
   </si>
   <si>
     <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
   </si>
   <si>
+    <t>ObservationLife-adultcheck</t>
+  </si>
+  <si>
+    <t>Observation Life - AdultCheck</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history</t>
+  </si>
+  <si>
+    <t>https://tstifhir.azurehealthcareapis.com/ValueSet/adultcheck-lifecode (required)</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>ObservationPressure-adultcheck</t>
+  </si>
+  <si>
+    <t>Observation Pressure - AdultCheck</t>
+  </si>
+  <si>
+    <t>LOINC#85354-9</t>
+  </si>
+  <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
   </si>
   <si>
-    <t>SNOMED CT#66446005</t>
-  </si>
-  <si>
-    <t>stringĵ</t>
-  </si>
-  <si>
-    <t>SNOMED CT#713566001</t>
-  </si>
-  <si>
-    <t>ObservationHeight-adultcheck</t>
-  </si>
-  <si>
-    <t>Observation Height - AdultCheck</t>
-  </si>
-  <si>
-    <t>LOINC#8302-2</t>
-  </si>
-  <si>
-    <t>ObservationLab-adultcheck</t>
-  </si>
-  <si>
-    <t>Observation Lab - AdultCheck</t>
-  </si>
-  <si>
-    <t>ObservationLife-adultcheck</t>
-  </si>
-  <si>
-    <t>Observation Life - AdultCheck</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history</t>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4</t>
+  </si>
+  <si>
+    <t>ObservationWaist-adultcheck</t>
+  </si>
+  <si>
+    <t>Observation Waist - AdultCheck</t>
+  </si>
+  <si>
+    <t>null#56117-5</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
   </si>
   <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>ObservationPressure-adultcheck</t>
-  </si>
-  <si>
-    <t>Observation Pressure - AdultCheck</t>
-  </si>
-  <si>
-    <t>LOINC#85354-9</t>
-  </si>
-  <si>
-    <t>LOINC#8480-6</t>
-  </si>
-  <si>
-    <t>LOINC#8462-4</t>
-  </si>
-  <si>
-    <t>ObservationWaist-adultcheck</t>
-  </si>
-  <si>
-    <t>Observation Waist - AdultCheck</t>
-  </si>
-  <si>
-    <t>LOINC#56117-5</t>
+    <t>Quantity</t>
   </si>
   <si>
     <t>ObservationWeight-adultcheck</t>
@@ -164,7 +179,7 @@
     <t>Observation Weight - AdultCheck</t>
   </si>
   <si>
-    <t>LOINC#29463-7</t>
+    <t>null#29463-7</t>
   </si>
 </sst>
 </file>
@@ -391,13 +406,13 @@
         <v>22</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>25</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -423,16 +438,16 @@
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>27</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -458,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>14</v>
@@ -467,7 +482,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -481,10 +496,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>30</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>13</v>
@@ -493,10 +508,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>14</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>16</v>
@@ -522,7 +537,7 @@
         <v>33</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
@@ -531,10 +546,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>17</v>
@@ -551,13 +566,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
@@ -566,13 +581,13 @@
         <v>14</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -586,10 +601,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>13</v>
@@ -598,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
@@ -607,7 +622,7 @@
         <v>16</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -624,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>14</v>
@@ -633,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
@@ -642,7 +657,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -659,7 +674,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>14</v>
@@ -668,7 +683,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>14</v>
@@ -677,7 +692,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -691,10 +706,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>13</v>
@@ -703,16 +718,16 @@
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -726,10 +741,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>13</v>
@@ -738,10 +753,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>16</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -125,10 +125,28 @@
     <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
   </si>
   <si>
-    <t>ObservationLife-adultcheck</t>
-  </si>
-  <si>
-    <t>Observation Life - AdultCheck</t>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>ObservationPressure-adultcheck</t>
+  </si>
+  <si>
+    <t>Observation Pressure - AdultCheck</t>
+  </si>
+  <si>
+    <t>LOINC#85354-9</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4</t>
+  </si>
+  <si>
+    <t>ObservationSocial-adultcheck</t>
+  </si>
+  <si>
+    <t>Observation Social - AdultCheck</t>
   </si>
   <si>
     <t>Observation Category Codes#social-history</t>
@@ -138,24 +156,6 @@
   </si>
   <si>
     <t>dateTime</t>
-  </si>
-  <si>
-    <t>ObservationPressure-adultcheck</t>
-  </si>
-  <si>
-    <t>Observation Pressure - AdultCheck</t>
-  </si>
-  <si>
-    <t>LOINC#85354-9</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>LOINC#8480-6</t>
-  </si>
-  <si>
-    <t>LOINC#8462-4</t>
   </si>
   <si>
     <t>ObservationWaist-adultcheck</t>
@@ -552,7 +552,7 @@
         <v>36</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -566,28 +566,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>26</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -601,28 +601,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -639,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>14</v>
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
@@ -657,7 +657,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -671,28 +671,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="H11" t="s" s="2">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -116,7 +116,7 @@
     <t>Observation Lab - AdultCheck</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory</t>
+    <t>Observation Category Codes#laboratory, Observation Category Codes#laboratory</t>
   </si>
   <si>
     <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/laboratory-category-tw (required)</t>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="62">
   <si>
     <t>Profile</t>
   </si>
@@ -47,10 +47,10 @@
     <t>Method</t>
   </si>
   <si>
-    <t>ObservationBMI-adultcheck</t>
-  </si>
-  <si>
-    <t>Observation BMI - AdultCheck</t>
+    <t>ObservationBMI-HPA</t>
+  </si>
+  <si>
+    <t>成人預防保健-身體檢查-身體質量指數(BMI)</t>
   </si>
   <si>
     <t>Observation Category Codes#vital-signs</t>
@@ -59,10 +59,13 @@
     <t/>
   </si>
   <si>
-    <t>LOINC#39156-5, LOINC#39156-5</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ</t>
+    <t>null#39156-5</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
   </si>
   <si>
     <t>Quantityĵ</t>
@@ -71,112 +74,127 @@
     <t>optional</t>
   </si>
   <si>
-    <t>ObservationDepression-adultcheck</t>
-  </si>
-  <si>
-    <t>Observation Depression - AdultCheck</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#exam</t>
+    <t>ObservationDepression-HPA</t>
+  </si>
+  <si>
+    <t>成人預防保健-憂鬱檢測</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#survey</t>
   </si>
   <si>
     <t>LOINC#89210-9</t>
   </si>
   <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
     <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
   </si>
   <si>
-    <t>SNOMED CT#66446005</t>
+    <t>LOINC#44255-8</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>SNOMED CT#713566001</t>
-  </si>
-  <si>
-    <t>ObservationHeight-adultcheck</t>
-  </si>
-  <si>
-    <t>Observation Height - AdultCheck</t>
+    <t>LOINC#44250-9</t>
+  </si>
+  <si>
+    <t>ObservationHealthBehavior-HPA</t>
+  </si>
+  <si>
+    <t>成人預防保健-健康行為</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history</t>
+  </si>
+  <si>
+    <t>https://etatunghpa.com/ValueSet/snomed-health-behavior-code (required)</t>
+  </si>
+  <si>
+    <t>ObservationHealthConsultation-HPA</t>
+  </si>
+  <si>
+    <t>成人預防保健-健康諮詢</t>
+  </si>
+  <si>
+    <t>https://etatunghpa.com/ValueSet/snomed-health-consultation-code (required)</t>
+  </si>
+  <si>
+    <t>ObservationHeight-HPA</t>
+  </si>
+  <si>
+    <t>成人預防保健-身體檢查-身高</t>
   </si>
   <si>
     <t>null#8302-2</t>
   </si>
   <si>
-    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/vital-signs-tw (required)</t>
-  </si>
-  <si>
-    <t>ObservationLab-adultcheck</t>
-  </si>
-  <si>
-    <t>Observation Lab - AdultCheck</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, Observation Category Codes#laboratory</t>
+    <t>ObservationKidneyStage-HPA</t>
+  </si>
+  <si>
+    <t>成人預防保健-腎功能檢查期別</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t>LOINC#88240-7</t>
+  </si>
+  <si>
+    <t>ObservationLab-HPA</t>
+  </si>
+  <si>
+    <t>成人預防保健-實驗室檢查</t>
   </si>
   <si>
     <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/laboratory-category-tw (required)</t>
   </si>
   <si>
-    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+    <t>Quantityĵ, stringĵ</t>
+  </si>
+  <si>
+    <t>ObservationPressure-HPA</t>
+  </si>
+  <si>
+    <t>成人預防保健-身體檢查-血壓</t>
+  </si>
+  <si>
+    <t>null#85354-9</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4</t>
+  </si>
+  <si>
+    <t>ObservationSmokingStatus-HPA</t>
+  </si>
+  <si>
+    <t>成人預防保健-健康行為-吸菸</t>
+  </si>
+  <si>
+    <t>LOINC#72166-2</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ, Quantityĵ</t>
+  </si>
+  <si>
+    <t>ObservationWaist-HPA</t>
+  </si>
+  <si>
+    <t>成人預防保健-身體檢查-腰圍</t>
+  </si>
+  <si>
+    <t>LOINC#56117-5</t>
   </si>
   <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
   </si>
   <si>
-    <t>ObservationPressure-adultcheck</t>
-  </si>
-  <si>
-    <t>Observation Pressure - AdultCheck</t>
-  </si>
-  <si>
-    <t>LOINC#85354-9</t>
-  </si>
-  <si>
-    <t>LOINC#8480-6</t>
-  </si>
-  <si>
-    <t>LOINC#8462-4</t>
-  </si>
-  <si>
-    <t>ObservationSocial-adultcheck</t>
-  </si>
-  <si>
-    <t>Observation Social - AdultCheck</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history</t>
-  </si>
-  <si>
-    <t>https://tstifhir.azurehealthcareapis.com/ValueSet/adultcheck-lifecode (required)</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>ObservationWaist-adultcheck</t>
-  </si>
-  <si>
-    <t>Observation Waist - AdultCheck</t>
-  </si>
-  <si>
-    <t>null#56117-5</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>ObservationWeight-adultcheck</t>
-  </si>
-  <si>
-    <t>Observation Weight - AdultCheck</t>
+    <t>ObservationWeight-HPA</t>
+  </si>
+  <si>
+    <t>成人預防保健-身體檢查-體重</t>
   </si>
   <si>
     <t>null#29463-7</t>
@@ -313,7 +331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -371,16 +389,16 @@
         <v>15</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
         <v>14</v>
@@ -391,31 +409,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>24</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>14</v>
@@ -429,7 +447,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>14</v>
@@ -450,7 +468,7 @@
         <v>26</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>14</v>
@@ -464,7 +482,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>14</v>
@@ -485,7 +503,7 @@
         <v>26</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>14</v>
@@ -502,25 +520,25 @@
         <v>29</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>31</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>14</v>
@@ -537,25 +555,25 @@
         <v>33</v>
       </c>
       <c r="C7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>35</v>
-      </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>14</v>
@@ -566,10 +584,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>13</v>
@@ -578,19 +596,19 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>14</v>
@@ -601,13 +619,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
@@ -619,13 +637,13 @@
         <v>14</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>14</v>
@@ -636,31 +654,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>14</v>
@@ -671,31 +689,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>14</v>
@@ -706,71 +724,176 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="F14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="I14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D13" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s" s="2">
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s" s="2">
+      <c r="G16" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="J13" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s" s="2">
+      <c r="I16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -107,7 +107,7 @@
     <t>Observation Category Codes#social-history</t>
   </si>
   <si>
-    <t>https://etatunghpa.com/ValueSet/snomed-health-behavior-code (required)</t>
+    <t>https://twhpa.tsti.com/ValueSet/snomed-health-behavior-code (required)</t>
   </si>
   <si>
     <t>ObservationHealthConsultation-HPA</t>
@@ -116,7 +116,7 @@
     <t>成人預防保健-健康諮詢</t>
   </si>
   <si>
-    <t>https://etatunghpa.com/ValueSet/snomed-health-consultation-code (required)</t>
+    <t>https://twhpa.tsti.com/ValueSet/snomed-health-consultation-code (required)</t>
   </si>
   <si>
     <t>ObservationHeight-HPA</t>
